--- a/Immunity/Immunity_Data.xlsx
+++ b/Immunity/Immunity_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Co-Administration_Influenza_COVID\SARS_CoV_2\Seasonal_SARS_CoV2_Vaccination\Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E511B146-36A4-4760-BA70-F4C4F9694A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6774761-E934-47A0-930B-50A88559EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EB60D29E-B451-4E1C-AEA3-DBD7FCD71837}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB60D29E-B451-4E1C-AEA3-DBD7FCD71837}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -50,23 +50,21 @@
     <sheet name="Age_50_64_Booster_SD_1" sheetId="36" r:id="rId35"/>
     <sheet name="Age_60_plus_Booster_Infection_1" sheetId="26" r:id="rId36"/>
     <sheet name="Age_60_plus_Booster_Infection_2" sheetId="27" r:id="rId37"/>
-    <sheet name="Age_60_plus_Booster_infection_3" sheetId="29" r:id="rId38"/>
-    <sheet name="Age_60_plus_Booster_SD_1" sheetId="32" r:id="rId39"/>
-    <sheet name="Age_65_plus_Booster_SD_1" sheetId="37" r:id="rId40"/>
-    <sheet name="Age_65_plus_Booster_SD_2" sheetId="41" r:id="rId41"/>
-    <sheet name="Age_65_plus_Booster_SD_3" sheetId="49" r:id="rId42"/>
-    <sheet name="Age_65_plus_Booster_Symptom_1" sheetId="46" r:id="rId43"/>
-    <sheet name="Age_18_59_Booster_Infection" sheetId="64" r:id="rId44"/>
-    <sheet name="Age_18_59_Booster_SD" sheetId="66" r:id="rId45"/>
-    <sheet name="Age_60_plus_Booster_Infection" sheetId="65" r:id="rId46"/>
-    <sheet name="Age_60_plus_Booster_SD" sheetId="67" r:id="rId47"/>
-    <sheet name="Age_10_19_Booster_Infection_1" sheetId="57" r:id="rId48"/>
-    <sheet name="Age_20_29_Booster_Infection_1" sheetId="58" r:id="rId49"/>
-    <sheet name="Age_30_39_Booster_Infection_1" sheetId="59" r:id="rId50"/>
-    <sheet name="Age_40_49_Booster_Infection_1" sheetId="60" r:id="rId51"/>
-    <sheet name="Age_50_59_Booster_Infection_1" sheetId="61" r:id="rId52"/>
-    <sheet name="Age_60_69_Booster_Infection_1" sheetId="62" r:id="rId53"/>
-    <sheet name="Age_70_79_Booster_Infection_1" sheetId="63" r:id="rId54"/>
+    <sheet name="Age_65_plus_Booster_SD_1" sheetId="37" r:id="rId38"/>
+    <sheet name="Age_65_plus_Booster_SD_2" sheetId="41" r:id="rId39"/>
+    <sheet name="Age_65_plus_Booster_SD_3" sheetId="49" r:id="rId40"/>
+    <sheet name="Age_65_plus_Booster_Symptom_1" sheetId="46" r:id="rId41"/>
+    <sheet name="Age_18_59_Booster_Infection" sheetId="64" r:id="rId42"/>
+    <sheet name="Age_18_59_Booster_SD" sheetId="66" r:id="rId43"/>
+    <sheet name="Age_60_plus_Booster_Infection" sheetId="65" r:id="rId44"/>
+    <sheet name="Age_60_plus_Booster_SD" sheetId="67" r:id="rId45"/>
+    <sheet name="Age_10_19_Booster_Infection_1" sheetId="57" r:id="rId46"/>
+    <sheet name="Age_20_29_Booster_Infection_1" sheetId="58" r:id="rId47"/>
+    <sheet name="Age_30_39_Booster_Infection_1" sheetId="59" r:id="rId48"/>
+    <sheet name="Age_40_49_Booster_Infection_1" sheetId="60" r:id="rId49"/>
+    <sheet name="Age_50_59_Booster_Infection_1" sheetId="61" r:id="rId50"/>
+    <sheet name="Age_60_69_Booster_Infection_1" sheetId="62" r:id="rId51"/>
+    <sheet name="Age_70_79_Booster_Infection_1" sheetId="63" r:id="rId52"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -89,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="112">
   <si>
     <t>Weeks post-infection</t>
   </si>
@@ -242,18 +240,6 @@
   </si>
   <si>
     <t>Age_18_59_Booster_Infection_1</t>
-  </si>
-  <si>
-    <t>Age_60_plus_Booster_infection_3</t>
-  </si>
-  <si>
-    <t>Feikin DR, Higdon MM, Abu-Raddad LJ, et al. Duration of effectiveness of vaccines against SARS-CoV-2 infection and COVID-19 disease: results of a systematic review and meta-regression. Lancet 2022; 399: 924–44.</t>
-  </si>
-  <si>
-    <t>Duration of vaccine effectiveness in non-elderly adults and adolescents</t>
-  </si>
-  <si>
-    <t>Age_60_plus_Booster_SD_1</t>
   </si>
   <si>
     <t>Booster_SD_3</t>
@@ -826,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CEC730-8B6C-4FFF-9AC7-5FE8DF9352D9}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,13 +937,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,7 +962,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -984,24 +970,24 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,10 +1014,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -1039,10 +1025,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -1050,98 +1036,98 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -1160,32 +1146,32 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -1193,13 +1179,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,123 +1212,123 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
-        <v>115</v>
-      </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
         <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,18 +1339,18 @@
         <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
         <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,40 +1361,18 @@
         <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
-        <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -30287,170 +30251,8 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BCD9E9-65C2-413B-A0DA-2EA31259BD86}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.50218340611353596</v>
-      </c>
-      <c r="B2">
-        <f>ROUND(A2*30,0)</f>
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>0.778592375366569</v>
-      </c>
-      <c r="D2">
-        <v>0.76392961876832799</v>
-      </c>
-      <c r="E2">
-        <v>0.78885630498533699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1.49781659388646</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B8" si="0">ROUND(A3*30,0)</f>
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>0.73460410557184697</v>
-      </c>
-      <c r="D3">
-        <v>0.71407624633430999</v>
-      </c>
-      <c r="E3">
-        <v>0.75219941348973596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2.4934497816593799</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>0.69941348973606998</v>
-      </c>
-      <c r="D4">
-        <v>0.66715542521994098</v>
-      </c>
-      <c r="E4">
-        <v>0.72873900293255101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3.50218340611353</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C5">
-        <v>0.51612903225806395</v>
-      </c>
-      <c r="D5">
-        <v>0.44428152492668599</v>
-      </c>
-      <c r="E5">
-        <v>0.57624633431085004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4.3930131004366801</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="C6">
-        <v>0.18328445747800601</v>
-      </c>
-      <c r="D6">
-        <v>5.57184750733139E-2</v>
-      </c>
-      <c r="E6">
-        <v>0.29325513196480901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5.4017467248908204</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="C7">
-        <v>0.17302052785923699</v>
-      </c>
-      <c r="D7">
-        <v>1.7595307917888499E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.30498533724340099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6.5021834061135397</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="C8">
-        <v>0.24340175953079099</v>
-      </c>
-      <c r="D8">
-        <v>1E-4</v>
-      </c>
-      <c r="E8">
-        <v>0.43548387096774199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198C3A3C-C6D0-48EF-9CFF-C96DF9A39D78}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F257500F-A2AB-4B46-8706-DF9C91A5C1F9}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -30460,10 +30262,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -30477,128 +30279,172 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.50326797385620803</v>
+        <v>50</v>
       </c>
       <c r="B2">
-        <f>ROUND(A2*30,0)</f>
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>0.96920821114369504</v>
+        <v>0.52</v>
       </c>
       <c r="D2">
-        <v>0.94868035190615796</v>
+        <v>0.33</v>
       </c>
       <c r="E2">
-        <v>0.98240469208211101</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.49673202614379</v>
+        <v>213</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B8" si="0">ROUND(A3*30,0)</f>
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="C3">
-        <v>0.93108504398826897</v>
+        <v>0.38</v>
       </c>
       <c r="D3">
-        <v>0.75073313782991202</v>
+        <v>0.32</v>
       </c>
       <c r="E3">
-        <v>0.98680351906158303</v>
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AC4A9-EA11-4457-B162-F7BBB7D2DAD0}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0.77</v>
+      </c>
+      <c r="D2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>77</v>
+      </c>
+      <c r="C3">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.80300000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2.5032679738561998</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C4">
-        <v>0.97067448680351898</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="D4">
-        <v>0.90615835777126097</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="E4">
-        <v>0.99120234604105495</v>
+        <v>0.68600000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.5098039215686199</v>
+        <v>151</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="C5">
-        <v>0.885630498533724</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D5">
-        <v>0.61876832844574703</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="E5">
-        <v>0.96480938416422302</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.5032679738562003</v>
+        <v>241</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>135</v>
+        <f>11*30</f>
+        <v>330</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.49673202614379</v>
+        <v>331</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>165</v>
+        <f>14*30</f>
+        <v>420</v>
       </c>
       <c r="C7">
-        <v>0.93255131964809301</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D7">
-        <v>0.49413489736070298</v>
+        <v>0.437</v>
       </c>
       <c r="E7">
-        <v>0.99413489736070304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6.5032679738562003</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="C8">
-        <v>0.57184750733137801</v>
-      </c>
-      <c r="D8">
-        <v>1E-4</v>
-      </c>
-      <c r="E8">
-        <v>0.89002932551319602</v>
+        <v>0.59599999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -33721,208 +33567,6 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F257500F-A2AB-4B46-8706-DF9C91A5C1F9}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>0.52</v>
-      </c>
-      <c r="D2">
-        <v>0.33</v>
-      </c>
-      <c r="E2">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>213</v>
-      </c>
-      <c r="B3">
-        <v>268</v>
-      </c>
-      <c r="C3">
-        <v>0.38</v>
-      </c>
-      <c r="D3">
-        <v>0.32</v>
-      </c>
-      <c r="E3">
-        <v>0.44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563AC4A9-EA11-4457-B162-F7BBB7D2DAD0}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>0.77</v>
-      </c>
-      <c r="D2">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="E2">
-        <v>0.81399999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>77</v>
-      </c>
-      <c r="C3">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="D3">
-        <v>0.75700000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.80300000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>90</v>
-      </c>
-      <c r="B4">
-        <v>150</v>
-      </c>
-      <c r="C4">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="D4">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>151</v>
-      </c>
-      <c r="B5">
-        <v>240</v>
-      </c>
-      <c r="C5">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="D5">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>241</v>
-      </c>
-      <c r="B6">
-        <f>11*30</f>
-        <v>330</v>
-      </c>
-      <c r="C6">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="E6">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>331</v>
-      </c>
-      <c r="B7">
-        <f>14*30</f>
-        <v>420</v>
-      </c>
-      <c r="C7">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="D7">
-        <v>0.437</v>
-      </c>
-      <c r="E7">
-        <v>0.59599999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC29ACE-EB13-4C9C-B025-82B4A25A787B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -34005,7 +33649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511DBD7B-6E73-40B5-A7C1-B1DC69E2480E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -34056,7 +33700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC69ED3-4188-4065-A66B-CEE24399C138}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -34156,7 +33800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DDCF02-D3FD-4F25-AFEC-3338A1C79EBB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -34256,7 +33900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E99B1A-0101-4D5B-9AD8-F3AE2349E4E5}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -34356,7 +34000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB1CF1D-E178-418C-93A0-20924046ED12}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -34456,7 +34100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F3F12F-F8F2-4217-B5EF-6D990042A6E1}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -34505,7 +34149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F748BD-2A43-4F16-AC55-4AA8DED3D0DF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -34547,6 +34191,104 @@
       </c>
       <c r="E2">
         <v>0.45909090909090899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B090DB8-D99E-4A5D-85D8-45E99D5D25E2}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>0.458095238095238</v>
+      </c>
+      <c r="D2">
+        <v>0.43825396825396801</v>
+      </c>
+      <c r="E2">
+        <v>0.47793650793650799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96156AF-06C3-476F-844C-FE568A565A55}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>0.469018759018759</v>
+      </c>
+      <c r="D2">
+        <v>0.44917748917748901</v>
+      </c>
+      <c r="E2">
+        <v>0.488860028860028</v>
       </c>
     </row>
   </sheetData>
@@ -38209,104 +37951,6 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B090DB8-D99E-4A5D-85D8-45E99D5D25E2}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>0.458095238095238</v>
-      </c>
-      <c r="D2">
-        <v>0.43825396825396801</v>
-      </c>
-      <c r="E2">
-        <v>0.47793650793650799</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96156AF-06C3-476F-844C-FE568A565A55}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>28</v>
-      </c>
-      <c r="C2">
-        <v>0.469018759018759</v>
-      </c>
-      <c r="D2">
-        <v>0.44917748917748901</v>
-      </c>
-      <c r="E2">
-        <v>0.488860028860028</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A7FAFA-9E88-429E-979C-748506E807E6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -38355,7 +37999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18FA7BB6-38E8-4FD3-82BF-9E9897154911}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -38404,7 +38048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9718DE8C-DD0A-475D-BD22-ECB59DD0977D}">
   <dimension ref="A1:E2"/>
   <sheetViews>

--- a/Immunity/Immunity_Data.xlsx
+++ b/Immunity/Immunity_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Co-Administration_Influenza_COVID\SARS_CoV_2\Seasonal_SARS_CoV2_Vaccination\Immunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6774761-E934-47A0-930B-50A88559EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B09A2A-B2B7-4AF3-AB45-D4460DB647AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB60D29E-B451-4E1C-AEA3-DBD7FCD71837}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{EB60D29E-B451-4E1C-AEA3-DBD7FCD71837}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="1" r:id="rId1"/>
@@ -458,18 +458,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -496,7 +490,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,9 +510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -556,7 +550,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -662,7 +656,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -804,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -814,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39CEC730-8B6C-4FFF-9AC7-5FE8DF9352D9}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
